--- a/data/financial_statements/sofp/SHW.xlsx
+++ b/data/financial_statements/sofp/SHW.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>131000000</v>
+        <v>130500000</v>
       </c>
       <c r="C2">
-        <v>313000000</v>
+        <v>312600000</v>
       </c>
       <c r="D2">
-        <v>401000000</v>
+        <v>401100000</v>
       </c>
       <c r="E2">
-        <v>166000000</v>
+        <v>165700000</v>
       </c>
       <c r="F2">
-        <v>313000000</v>
+        <v>313300000</v>
       </c>
       <c r="G2">
         <v>219600000</v>
@@ -736,20 +847,20 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>2973000000</v>
+        <v>2897600000</v>
       </c>
       <c r="C3">
-        <v>3048000000</v>
+        <v>2982500000</v>
       </c>
       <c r="D3">
-        <v>2852000000</v>
+        <v>2783600000</v>
       </c>
       <c r="E3">
-        <v>2413000000</v>
+        <v>2352400000</v>
       </c>
       <c r="F3">
         <v>2598000000</v>
@@ -858,20 +969,20 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2548000000</v>
+        <v>2547800000</v>
       </c>
       <c r="C4">
-        <v>2412000000</v>
+        <v>2411600000</v>
       </c>
       <c r="D4">
-        <v>2329000000</v>
+        <v>2328600000</v>
       </c>
       <c r="E4">
-        <v>1927000000</v>
+        <v>1927200000</v>
       </c>
       <c r="F4">
         <v>1816000000</v>
@@ -980,23 +1091,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>466000000</v>
+        <v>541300000</v>
       </c>
       <c r="C5">
-        <v>488000000</v>
+        <v>552800000</v>
       </c>
       <c r="D5">
-        <v>505000000</v>
+        <v>573100000</v>
       </c>
       <c r="E5">
-        <v>548000000</v>
+        <v>608400000</v>
       </c>
       <c r="F5">
-        <v>651000000</v>
+        <v>651100000</v>
       </c>
       <c r="G5">
         <v>571400000</v>
@@ -1102,23 +1213,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>6117000000</v>
+        <v>6117200000</v>
       </c>
       <c r="C6">
-        <v>6260000000</v>
+        <v>6259500000</v>
       </c>
       <c r="D6">
-        <v>6086000000</v>
+        <v>6086400000</v>
       </c>
       <c r="E6">
-        <v>5054000000</v>
+        <v>5053700000</v>
       </c>
       <c r="F6">
-        <v>5378000000</v>
+        <v>5378400000</v>
       </c>
       <c r="G6">
         <v>5185700000</v>
@@ -1224,23 +1335,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>3894000000</v>
+        <v>2041200000</v>
       </c>
       <c r="C7">
-        <v>3804000000</v>
+        <v>1961900000</v>
       </c>
       <c r="D7">
-        <v>3745000000</v>
+        <v>1907300000</v>
       </c>
       <c r="E7">
-        <v>3688000000</v>
+        <v>1867300000</v>
       </c>
       <c r="F7">
-        <v>3602000000</v>
+        <v>1827200000</v>
       </c>
       <c r="G7">
         <v>1806300000</v>
@@ -1346,8 +1457,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>522000000</v>
@@ -1387,23 +1498,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>11277000000</v>
+        <v>11276500000</v>
       </c>
       <c r="C9">
-        <v>11061000000</v>
+        <v>11061200000</v>
       </c>
       <c r="D9">
-        <v>11063000000</v>
+        <v>11062800000</v>
       </c>
       <c r="E9">
-        <v>11136000000</v>
+        <v>11136100000</v>
       </c>
       <c r="F9">
-        <v>11065000000</v>
+        <v>11065100000</v>
       </c>
       <c r="G9">
         <v>11183300000</v>
@@ -1509,23 +1620,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>325000000</v>
+        <v>957900000</v>
       </c>
       <c r="C10">
-        <v>289000000</v>
+        <v>927800000</v>
       </c>
       <c r="D10">
-        <v>298000000</v>
+        <v>836000000</v>
       </c>
       <c r="E10">
-        <v>302000000</v>
+        <v>789000000</v>
       </c>
       <c r="F10">
-        <v>378000000</v>
+        <v>691500000</v>
       </c>
       <c r="G10">
         <v>580100000</v>
@@ -1631,8 +1742,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>16128600000</v>
@@ -1753,23 +1864,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>22246000000</v>
+        <v>22245800000</v>
       </c>
       <c r="C12">
-        <v>22053000000</v>
+        <v>22052800000</v>
       </c>
       <c r="D12">
-        <v>21730000000</v>
+        <v>21730400000</v>
       </c>
       <c r="E12">
-        <v>20667000000</v>
+        <v>20666700000</v>
       </c>
       <c r="F12">
-        <v>20737000000</v>
+        <v>20736600000</v>
       </c>
       <c r="G12">
         <v>20519600000</v>
@@ -1875,23 +1986,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>2808000000</v>
+        <v>2808400000</v>
       </c>
       <c r="C13">
-        <v>2993000000</v>
+        <v>2992900000</v>
       </c>
       <c r="D13">
-        <v>2861000000</v>
+        <v>2860800000</v>
       </c>
       <c r="E13">
         <v>2403000000</v>
       </c>
       <c r="F13">
-        <v>2675000000</v>
+        <v>2675400000</v>
       </c>
       <c r="G13">
         <v>2502800000</v>
@@ -1997,8 +2108,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>205300000</v>
@@ -2119,23 +2230,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>1364000000</v>
+        <v>945800000</v>
       </c>
       <c r="C15">
-        <v>2431000000</v>
+        <v>2012600000</v>
       </c>
       <c r="D15">
-        <v>2416000000</v>
+        <v>2000400000</v>
       </c>
       <c r="E15">
-        <v>1434000000</v>
+        <v>1024100000</v>
       </c>
       <c r="F15">
-        <v>1770000000</v>
+        <v>1371500000</v>
       </c>
       <c r="G15">
         <v>1449200000</v>
@@ -2241,23 +2352,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>1718000000</v>
+        <v>650600000</v>
       </c>
       <c r="C16">
-        <v>1589000000</v>
+        <v>587600000</v>
       </c>
       <c r="D16">
-        <v>1498000000</v>
+        <v>572300000</v>
       </c>
       <c r="E16">
-        <v>1722000000</v>
+        <v>716600000</v>
       </c>
       <c r="F16">
-        <v>1852000000</v>
+        <v>692100000</v>
       </c>
       <c r="G16">
         <v>593100000</v>
@@ -2363,23 +2474,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>6096000000</v>
       </c>
       <c r="C17">
-        <v>7198000000</v>
+        <v>7198200000</v>
       </c>
       <c r="D17">
-        <v>6953000000</v>
+        <v>6953100000</v>
       </c>
       <c r="E17">
-        <v>5720000000</v>
+        <v>5719500000</v>
       </c>
       <c r="F17">
-        <v>6479000000</v>
+        <v>6478500000</v>
       </c>
       <c r="G17">
         <v>6190400000</v>
@@ -2485,23 +2596,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>11081000000</v>
+        <v>9588900000</v>
       </c>
       <c r="C18">
-        <v>10077000000</v>
+        <v>8593600000</v>
       </c>
       <c r="D18">
-        <v>10074000000</v>
+        <v>8592300000</v>
       </c>
       <c r="E18">
-        <v>10062000000</v>
+        <v>8590900000</v>
       </c>
       <c r="F18">
-        <v>9039000000</v>
+        <v>7604900000</v>
       </c>
       <c r="G18">
         <v>7603800000</v>
@@ -2607,8 +2718,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>256500000</v>
@@ -2729,23 +2840,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>692000000</v>
+        <v>691800000</v>
       </c>
       <c r="C20">
         <v>754000000</v>
       </c>
       <c r="D20">
-        <v>760000000</v>
+        <v>760200000</v>
       </c>
       <c r="E20">
-        <v>768000000</v>
+        <v>768200000</v>
       </c>
       <c r="F20">
-        <v>802000000</v>
+        <v>801500000</v>
       </c>
       <c r="G20">
         <v>803400000</v>
@@ -2815,23 +2926,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>1779000000</v>
+        <v>1522400000</v>
       </c>
       <c r="C21">
-        <v>1799000000</v>
+        <v>1541800000</v>
       </c>
       <c r="D21">
-        <v>1710000000</v>
+        <v>1450900000</v>
       </c>
       <c r="E21">
-        <v>1680000000</v>
+        <v>1420800000</v>
       </c>
       <c r="F21">
-        <v>1728000000</v>
+        <v>1455700000</v>
       </c>
       <c r="G21">
         <v>1379000000</v>
@@ -2937,8 +3048,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>13552000000</v>
@@ -3059,23 +3170,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>19648000000</v>
       </c>
       <c r="C23">
-        <v>19828000000</v>
+        <v>19828200000</v>
       </c>
       <c r="D23">
-        <v>19496000000</v>
+        <v>19496100000</v>
       </c>
       <c r="E23">
-        <v>18230000000</v>
+        <v>18229500000</v>
       </c>
       <c r="F23">
-        <v>18046000000</v>
+        <v>18046300000</v>
       </c>
       <c r="G23">
         <v>17679200000</v>
@@ -3181,8 +3292,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>3919600000</v>
@@ -3303,8 +3414,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AI25">
         <v>5722000</v>
@@ -3326,11 +3437,11 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>91000000</v>
+        <v>91100000</v>
       </c>
       <c r="C26">
         <v>91000000</v>
@@ -3339,10 +3450,10 @@
         <v>91000000</v>
       </c>
       <c r="E26">
-        <v>91000000</v>
+        <v>90800000</v>
       </c>
       <c r="F26">
-        <v>91000000</v>
+        <v>90500000</v>
       </c>
       <c r="G26">
         <v>90600000</v>
@@ -3448,23 +3559,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>3293000000</v>
+        <v>3292600000</v>
       </c>
       <c r="C27">
-        <v>2763000000</v>
+        <v>2763300000</v>
       </c>
       <c r="D27">
-        <v>2342000000</v>
+        <v>2341500000</v>
       </c>
       <c r="E27">
-        <v>2122000000</v>
+        <v>2121700000</v>
       </c>
       <c r="F27">
-        <v>1962000000</v>
+        <v>1961800000</v>
       </c>
       <c r="G27">
         <v>1604800000</v>
@@ -3570,8 +3681,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>3643000000</v>
@@ -3692,23 +3803,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>2598000000</v>
+        <v>2597800000</v>
       </c>
       <c r="C29">
-        <v>2225000000</v>
+        <v>2224600000</v>
       </c>
       <c r="D29">
-        <v>2234000000</v>
+        <v>2234300000</v>
       </c>
       <c r="E29">
-        <v>2437000000</v>
+        <v>2437200000</v>
       </c>
       <c r="F29">
-        <v>2690000000</v>
+        <v>2690301000</v>
       </c>
       <c r="G29">
         <v>2840400000</v>
@@ -3814,23 +3925,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>2598000000</v>
+        <v>2597800000</v>
       </c>
       <c r="C30">
-        <v>2225000000</v>
+        <v>2224600000</v>
       </c>
       <c r="D30">
-        <v>2234000000</v>
+        <v>2234300000</v>
       </c>
       <c r="E30">
-        <v>2437000000</v>
+        <v>2437200000</v>
       </c>
       <c r="F30">
-        <v>2690000000</v>
+        <v>2690300000</v>
       </c>
       <c r="G30">
         <v>2840400000</v>
@@ -3936,8 +4047,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>22245800000</v>
@@ -4058,8 +4169,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>259100000</v>
@@ -4180,8 +4291,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AI33">
         <v>18000</v>
@@ -4203,8 +4314,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-8678699000</v>
@@ -4325,23 +4436,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>12314000000</v>
+        <v>10404200000</v>
       </c>
       <c r="C35">
-        <v>12195000000</v>
+        <v>10293600000</v>
       </c>
       <c r="D35">
-        <v>12089000000</v>
+        <v>10191600000</v>
       </c>
       <c r="E35">
-        <v>11330000000</v>
+        <v>9449300000</v>
       </c>
       <c r="F35">
-        <v>10496000000</v>
+        <v>8663100000</v>
       </c>
       <c r="G35">
         <v>8833400000</v>
@@ -4447,23 +4558,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>12445000000</v>
+        <v>10534700000</v>
       </c>
       <c r="C36">
-        <v>12508000000</v>
+        <v>10606200000</v>
       </c>
       <c r="D36">
-        <v>12490000000</v>
+        <v>10592700000</v>
       </c>
       <c r="E36">
-        <v>11496000000</v>
+        <v>9615000000</v>
       </c>
       <c r="F36">
-        <v>10809000000</v>
+        <v>8976400000</v>
       </c>
       <c r="G36">
         <v>9053000000</v>
